--- a/OJT/Upload/Template/Export/OJT_EXP2.xlsx
+++ b/OJT/Upload/Template/Export/OJT_EXP2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20314"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE49B04A-B681-4B84-A264-FA820EE9F661}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FA43AB-5635-4341-8501-14CB95206FE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>NO.</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>SCORE</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G2"/>
+  <dimension ref="B2:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,7 +424,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,6 +442,9 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
